--- a/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:02+00:00</t>
+    <t>2023-03-06T10:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:20:50+00:00</t>
+    <t>2023-03-06T10:21:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:21:46+00:00</t>
+    <t>2023-03-07T14:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:51:30+00:00</t>
+    <t>2023-03-08T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:25:49+00:00</t>
+    <t>2023-03-08T07:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T07:58:39+00:00</t>
+    <t>2023-03-09T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-organization-address-line-iso-21090-adxp-locality.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T09:15:18+00:00</t>
+    <t>2023-03-09T12:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
